--- a/Genomics_scripts/Data/Mimulus_genomics_site_year.xlsx
+++ b/Genomics_scripts/Data/Mimulus_genomics_site_year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/AM_Workshop/AM_Workshop/Genomics_scripts/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{33484CD7-AC7C-5A44-BB4C-26185A13E028}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5765D0A8-0B23-5045-A44A-9C12DC99762E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="740" windowWidth="28040" windowHeight="16940"/>
+    <workbookView xWindow="440" yWindow="740" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mimulus_genomics_site_year" sheetId="1" r:id="rId1"/>
@@ -237,8 +237,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -369,6 +369,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF5EF6FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -759,7 +766,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -827,6 +834,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1188,11 +1198,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1345,7 +1355,7 @@
       <c r="I6" s="15">
         <v>6</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="26">
         <v>5</v>
       </c>
       <c r="L6" s="15">
